--- a/solvency2-rules/S2_08_01_01.xlsx
+++ b/solvency2-rules/S2_08_01_01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\30_code\python\gitlab\solvency2-rules\solvency2-rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Windows\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1089,7 +1089,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1105,9 +1105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1145,7 +1145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1217,7 +1217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1393,17 +1393,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1461,13 +1461,13 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>40516</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>123</v>
@@ -1482,7 +1482,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1496,13 +1496,13 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.90959999999999996</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>123</v>
@@ -1517,7 +1517,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1531,13 +1531,13 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>123</v>
@@ -1552,7 +1552,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1566,13 +1566,13 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13474</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9784</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.57930000000000004</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>123</v>
@@ -1587,7 +1587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1601,13 +1601,13 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>5217</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>123</v>
@@ -1622,7 +1622,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1636,13 +1636,13 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>15642</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4803</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7651</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>123</v>
@@ -1657,7 +1657,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1671,13 +1671,13 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>123</v>
@@ -1692,7 +1692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1706,13 +1706,13 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.97699999999999998</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>123</v>
@@ -1727,7 +1727,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1741,13 +1741,13 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>123</v>
@@ -1762,7 +1762,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1776,13 +1776,13 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1052</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.98870000000000002</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>123</v>
@@ -1797,7 +1797,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1811,13 +1811,13 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>123</v>
@@ -1832,7 +1832,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1846,13 +1846,13 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.56340000000000001</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>123</v>
@@ -1867,7 +1867,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1881,13 +1881,13 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.70330000000000004</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>123</v>
@@ -1902,7 +1902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1916,13 +1916,13 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>2530</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>123</v>
@@ -1937,7 +1937,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1951,13 +1951,13 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.99229999999999996</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>123</v>
@@ -1972,7 +1972,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1986,13 +1986,13 @@
         <v>33</v>
       </c>
       <c r="E17">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>123</v>
@@ -2007,7 +2007,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2021,13 +2021,13 @@
         <v>34</v>
       </c>
       <c r="E18">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>123</v>
@@ -2042,7 +2042,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2056,13 +2056,13 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
         <v>123</v>
@@ -2077,7 +2077,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2091,13 +2091,13 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>123</v>
@@ -2112,7 +2112,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2126,13 +2126,13 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
@@ -2147,7 +2147,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2161,13 +2161,13 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>123</v>
@@ -2182,7 +2182,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2196,13 +2196,13 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>123</v>
@@ -2217,7 +2217,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2231,13 +2231,13 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>123</v>
@@ -2252,7 +2252,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2266,13 +2266,13 @@
         <v>41</v>
       </c>
       <c r="E25">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.99650000000000005</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>123</v>
@@ -2287,7 +2287,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2301,13 +2301,13 @@
         <v>42</v>
       </c>
       <c r="E26">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>123</v>
@@ -2322,7 +2322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2336,13 +2336,13 @@
         <v>43</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>123</v>
@@ -2357,7 +2357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2371,13 +2371,13 @@
         <v>44</v>
       </c>
       <c r="E28">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>123</v>
@@ -2392,7 +2392,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2406,13 +2406,13 @@
         <v>45</v>
       </c>
       <c r="E29">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.54149999999999998</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>123</v>
@@ -2427,7 +2427,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2441,13 +2441,13 @@
         <v>46</v>
       </c>
       <c r="E30">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.63839999999999997</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -2462,7 +2462,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2476,13 +2476,13 @@
         <v>47</v>
       </c>
       <c r="E31">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>123</v>
@@ -2497,7 +2497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2511,13 +2511,13 @@
         <v>48</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -2532,7 +2532,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2546,13 +2546,13 @@
         <v>49</v>
       </c>
       <c r="E33">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>123</v>
@@ -2567,7 +2567,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2581,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>123</v>
@@ -2602,7 +2602,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2616,13 +2616,13 @@
         <v>51</v>
       </c>
       <c r="E35">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>123</v>
@@ -2637,7 +2637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2651,13 +2651,13 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
@@ -2672,7 +2672,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2686,13 +2686,13 @@
         <v>53</v>
       </c>
       <c r="E37">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
         <v>123</v>
@@ -2707,7 +2707,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2721,13 +2721,13 @@
         <v>54</v>
       </c>
       <c r="E38">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
         <v>123</v>
@@ -2742,7 +2742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2756,13 +2756,13 @@
         <v>55</v>
       </c>
       <c r="E39">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.9919</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>123</v>
@@ -2777,7 +2777,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2791,13 +2791,13 @@
         <v>56</v>
       </c>
       <c r="E40">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
         <v>123</v>
@@ -2812,7 +2812,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2826,13 +2826,13 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>1598</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.99809999999999999</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>123</v>
@@ -2847,7 +2847,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2861,13 +2861,13 @@
         <v>58</v>
       </c>
       <c r="E42">
-        <v>5312</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.99029999999999996</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
         <v>123</v>
@@ -2882,7 +2882,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2896,13 +2896,13 @@
         <v>59</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
         <v>123</v>
@@ -2917,7 +2917,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2931,13 +2931,13 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>123</v>
@@ -2952,7 +2952,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2966,13 +2966,13 @@
         <v>61</v>
       </c>
       <c r="E45">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
         <v>123</v>
@@ -2987,7 +2987,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3001,13 +3001,13 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>1749</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.96199999999999997</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>123</v>
@@ -3022,7 +3022,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3036,13 +3036,13 @@
         <v>63</v>
       </c>
       <c r="E47">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.99609999999999999</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>123</v>
@@ -3057,7 +3057,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3071,13 +3071,13 @@
         <v>64</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>123</v>
@@ -3092,7 +3092,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3106,13 +3106,13 @@
         <v>65</v>
       </c>
       <c r="E49">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.99480000000000002</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>123</v>
@@ -3127,7 +3127,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3141,13 +3141,13 @@
         <v>66</v>
       </c>
       <c r="E50">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.99109999999999998</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
         <v>123</v>
@@ -3162,7 +3162,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3176,13 +3176,13 @@
         <v>67</v>
       </c>
       <c r="E51">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
         <v>123</v>
@@ -3197,7 +3197,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3211,13 +3211,13 @@
         <v>68</v>
       </c>
       <c r="E52">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>123</v>
@@ -3232,7 +3232,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3246,13 +3246,13 @@
         <v>69</v>
       </c>
       <c r="E53">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
         <v>123</v>
@@ -3267,7 +3267,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3281,13 +3281,13 @@
         <v>70</v>
       </c>
       <c r="E54">
-        <v>20250</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>3008</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.87070000000000003</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>123</v>
@@ -3302,7 +3302,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3316,13 +3316,13 @@
         <v>71</v>
       </c>
       <c r="E55">
-        <v>4421</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.84740000000000004</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
         <v>123</v>
@@ -3337,7 +3337,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3351,13 +3351,13 @@
         <v>72</v>
       </c>
       <c r="E56">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
         <v>123</v>
@@ -3372,7 +3372,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3386,13 +3386,13 @@
         <v>73</v>
       </c>
       <c r="E57">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
         <v>123</v>
@@ -3407,7 +3407,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3421,13 +3421,13 @@
         <v>74</v>
       </c>
       <c r="E58">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>123</v>
@@ -3442,7 +3442,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3456,13 +3456,13 @@
         <v>75</v>
       </c>
       <c r="E59">
-        <v>40678</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
         <v>123</v>
@@ -3477,7 +3477,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3491,13 +3491,13 @@
         <v>76</v>
       </c>
       <c r="E60">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
         <v>123</v>
@@ -3512,7 +3512,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3526,13 +3526,13 @@
         <v>77</v>
       </c>
       <c r="E61">
-        <v>2577</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
         <v>123</v>
@@ -3547,7 +3547,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>78</v>
       </c>
       <c r="E62">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
         <v>123</v>
@@ -3582,7 +3582,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3596,13 +3596,13 @@
         <v>79</v>
       </c>
       <c r="E63">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.98640000000000005</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
         <v>123</v>
@@ -3617,7 +3617,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3631,13 +3631,13 @@
         <v>80</v>
       </c>
       <c r="E64">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
         <v>123</v>
@@ -3652,7 +3652,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3666,13 +3666,13 @@
         <v>81</v>
       </c>
       <c r="E65">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
         <v>123</v>
@@ -3687,7 +3687,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3701,13 +3701,13 @@
         <v>82</v>
       </c>
       <c r="E66">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.99019999999999997</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
         <v>123</v>
@@ -3722,7 +3722,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3736,13 +3736,13 @@
         <v>83</v>
       </c>
       <c r="E67">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.96889999999999998</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>123</v>
@@ -3757,7 +3757,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3771,13 +3771,13 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>123</v>
@@ -3792,7 +3792,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3806,13 +3806,13 @@
         <v>85</v>
       </c>
       <c r="E69">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.95379999999999998</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
         <v>123</v>
@@ -3827,7 +3827,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3841,13 +3841,13 @@
         <v>86</v>
       </c>
       <c r="E70">
-        <v>1241</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
         <v>123</v>
@@ -3862,7 +3862,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3876,13 +3876,13 @@
         <v>87</v>
       </c>
       <c r="E71">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
         <v>123</v>
@@ -3897,7 +3897,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3911,13 +3911,13 @@
         <v>88</v>
       </c>
       <c r="E72">
-        <v>20438</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.99970000000000003</v>
+        <v>0</v>
       </c>
       <c r="H72" t="s">
         <v>123</v>
@@ -3932,7 +3932,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3946,13 +3946,13 @@
         <v>89</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
         <v>123</v>
@@ -3967,7 +3967,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3981,13 +3981,13 @@
         <v>90</v>
       </c>
       <c r="E74">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="s">
         <v>123</v>
@@ -4002,7 +4002,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4016,13 +4016,13 @@
         <v>91</v>
       </c>
       <c r="E75">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.99619999999999997</v>
+        <v>0</v>
       </c>
       <c r="H75" t="s">
         <v>123</v>
@@ -4037,7 +4037,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4051,13 +4051,13 @@
         <v>92</v>
       </c>
       <c r="E76">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
         <v>123</v>
@@ -4072,7 +4072,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4086,13 +4086,13 @@
         <v>93</v>
       </c>
       <c r="E77">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.97330000000000005</v>
+        <v>0</v>
       </c>
       <c r="H77" t="s">
         <v>123</v>
@@ -4107,7 +4107,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4121,13 +4121,13 @@
         <v>94</v>
       </c>
       <c r="E78">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
         <v>123</v>
@@ -4142,7 +4142,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4156,13 +4156,13 @@
         <v>95</v>
       </c>
       <c r="E79">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.99650000000000005</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
         <v>123</v>
@@ -4177,7 +4177,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4191,13 +4191,13 @@
         <v>96</v>
       </c>
       <c r="E80">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.96360000000000001</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>123</v>
@@ -4212,7 +4212,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4226,13 +4226,13 @@
         <v>97</v>
       </c>
       <c r="E81">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.97919999999999996</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>123</v>
@@ -4247,7 +4247,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4261,13 +4261,13 @@
         <v>98</v>
       </c>
       <c r="E82">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
         <v>123</v>
@@ -4282,7 +4282,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4296,13 +4296,13 @@
         <v>99</v>
       </c>
       <c r="E83">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>123</v>
@@ -4317,7 +4317,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4331,13 +4331,13 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>2044</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.93889999999999996</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>123</v>
@@ -4352,7 +4352,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4366,13 +4366,13 @@
         <v>101</v>
       </c>
       <c r="E85">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.80789999999999995</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>123</v>
@@ -4387,7 +4387,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4401,13 +4401,13 @@
         <v>102</v>
       </c>
       <c r="E86">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0.93510000000000004</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>123</v>
@@ -4422,7 +4422,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4436,13 +4436,13 @@
         <v>103</v>
       </c>
       <c r="E87">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>123</v>
@@ -4457,7 +4457,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4471,13 +4471,13 @@
         <v>104</v>
       </c>
       <c r="E88">
-        <v>1601</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>123</v>
@@ -4492,7 +4492,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4506,13 +4506,13 @@
         <v>105</v>
       </c>
       <c r="E89">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>123</v>
@@ -4527,7 +4527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4541,13 +4541,13 @@
         <v>106</v>
       </c>
       <c r="E90">
-        <v>4518</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.84230000000000005</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>123</v>
@@ -4562,7 +4562,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4576,13 +4576,13 @@
         <v>107</v>
       </c>
       <c r="E91">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>123</v>
@@ -4597,7 +4597,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4611,13 +4611,13 @@
         <v>108</v>
       </c>
       <c r="E92">
-        <v>1174</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>123</v>
@@ -4632,7 +4632,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4646,13 +4646,13 @@
         <v>109</v>
       </c>
       <c r="E93">
-        <v>1801</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.99060000000000004</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>123</v>
@@ -4667,7 +4667,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4681,13 +4681,13 @@
         <v>110</v>
       </c>
       <c r="E94">
-        <v>2530</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
         <v>123</v>
@@ -4702,7 +4702,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4716,13 +4716,13 @@
         <v>111</v>
       </c>
       <c r="E95">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>123</v>
@@ -4737,7 +4737,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4751,13 +4751,13 @@
         <v>112</v>
       </c>
       <c r="E96">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.96850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>123</v>
@@ -4772,7 +4772,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4786,13 +4786,13 @@
         <v>113</v>
       </c>
       <c r="E97">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>123</v>
@@ -4807,7 +4807,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4821,13 +4821,13 @@
         <v>114</v>
       </c>
       <c r="E98">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>123</v>
@@ -4842,7 +4842,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4856,13 +4856,13 @@
         <v>115</v>
       </c>
       <c r="E99">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>123</v>
@@ -4877,7 +4877,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4891,13 +4891,13 @@
         <v>116</v>
       </c>
       <c r="E100">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>123</v>
@@ -4912,7 +4912,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4926,13 +4926,13 @@
         <v>117</v>
       </c>
       <c r="E101">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>123</v>
@@ -4947,7 +4947,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4961,13 +4961,13 @@
         <v>118</v>
       </c>
       <c r="E102">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>123</v>
@@ -4982,7 +4982,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4996,13 +4996,13 @@
         <v>119</v>
       </c>
       <c r="E103">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
         <v>123</v>
@@ -5017,7 +5017,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5031,13 +5031,13 @@
         <v>120</v>
       </c>
       <c r="E104">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>123</v>
@@ -5052,7 +5052,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5066,13 +5066,13 @@
         <v>121</v>
       </c>
       <c r="E105">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
         <v>123</v>
@@ -5087,7 +5087,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5101,13 +5101,13 @@
         <v>122</v>
       </c>
       <c r="E106">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
         <v>123</v>

--- a/solvency2-rules/S2_08_01_01.xlsx
+++ b/solvency2-rules/S2_08_01_01.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Windows\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11260"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="398">
   <si>
     <t>pattern_id</t>
   </si>
@@ -60,9 +55,6 @@
     <t>Error message</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>Contract size 1</t>
   </si>
   <si>
@@ -84,9 +76,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTF1" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTE2" THEN {"S.08.01.01.01,c0180"} = 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLE2" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
@@ -99,6 +88,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLD9" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTD8" THEN {"S.08.01.01.01,c0180"} = 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTF4" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
@@ -108,12 +100,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLE9" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLF1" THEN {"S.08.01.01.01,c0180"} = 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLE2" THEN {"S.08.01.01.01,c0180"} = 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLD1" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
@@ -147,6 +133,12 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "SGA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -156,15 +148,12 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "GBA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLC6" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLB6" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "SEA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CHA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -174,6 +163,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -195,18 +187,27 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC6" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "HKA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CAA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XXA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "BEB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -216,21 +217,45 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "USC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC3" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTB3" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "ESA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "LUC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "ITA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "FRA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CAA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTE2" THEN {"S.08.01.01.01,c0140"} = 0 </t>
   </si>
   <si>
@@ -297,6 +322,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLD9" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "SEA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CHA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -306,9 +334,15 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLD2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTD8" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -336,6 +370,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC6" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "HKA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLF1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -348,6 +385,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLA9" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLD2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLC1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -363,6 +403,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "USC1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "GBE2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC3" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -375,22 +418,37 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPB1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEB1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "LUC1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "FRA2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DED1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "GBD1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CHD1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTD4" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLF4" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t>validation rule</t>
+    <t>non-blocking taxonomy rule</t>
+  </si>
+  <si>
+    <t>blocking taxonomy rule</t>
   </si>
   <si>
     <t>{}</t>
@@ -405,9 +463,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF1") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE2") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -420,6 +475,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF4") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -429,12 +487,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE9") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="NLE2") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLD1") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -468,6 +520,12 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="SGA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -477,15 +535,12 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="GBA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XLC6") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XLB6") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -495,6 +550,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -516,18 +574,27 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CAA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XXA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="BEB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -537,21 +604,45 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTB3") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="ESA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="JPA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="ITA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="CAA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; (df["S.08.01.01.01,c0140"]==0)]</t>
   </si>
   <si>
@@ -618,6 +709,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -627,9 +721,15 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -657,6 +757,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -669,6 +772,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA9") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="NLD2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -684,6 +790,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="GBE2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -696,15 +805,27 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DED1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="GBD1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="CHD1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTD4") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -720,9 +841,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF1") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE2") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -735,6 +853,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF4") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -744,12 +865,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE9") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="NLE2") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLD1") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -783,6 +898,12 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="SGA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -792,15 +913,12 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="GBA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XLC6") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XLB6") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -810,6 +928,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -831,18 +952,27 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CAA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XXA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="BEB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -852,21 +982,45 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTB3") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="ESA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="JPA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="ITA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="CAA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; ~(df["S.08.01.01.01,c0140"]==0)]</t>
   </si>
   <si>
@@ -933,6 +1087,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -942,9 +1099,15 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -972,6 +1135,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -984,6 +1150,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA9") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="NLD2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -999,6 +1168,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="GBE2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -1011,13 +1183,25 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DED1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="GBD1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="CHD1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTD4") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
@@ -1029,8 +1213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,14 +1277,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1147,7 +1323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1179,10 +1355,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1214,7 +1389,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1390,23 +1564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="82" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,18 +1612,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1470,30 +1635,30 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1505,30 +1670,30 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1540,30 +1705,30 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1575,30 +1740,30 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="K5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1610,30 +1775,30 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1645,30 +1810,30 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1680,30 +1845,30 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1715,30 +1880,30 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="K9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1750,30 +1915,30 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1785,30 +1950,30 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="K11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1820,30 +1985,30 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1855,30 +2020,30 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1890,30 +2055,30 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1925,30 +2090,30 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1960,30 +2125,30 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1995,30 +2160,30 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2030,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2053,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2065,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2088,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2100,30 +2265,30 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2135,30 +2300,30 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2170,30 +2335,30 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2205,30 +2370,30 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2240,30 +2405,30 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2275,30 +2440,30 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J25" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2310,30 +2475,30 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J26" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2345,30 +2510,30 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J27" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2380,30 +2545,30 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2415,30 +2580,30 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2450,30 +2615,30 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2485,30 +2650,30 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2520,30 +2685,30 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J32" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2555,30 +2720,30 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J33" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2590,30 +2755,30 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2625,30 +2790,30 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2660,30 +2825,30 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2695,30 +2860,30 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J37" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2730,30 +2895,30 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2765,30 +2930,30 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J39" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2800,30 +2965,30 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2835,30 +3000,30 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J41" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2870,30 +3035,30 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J42" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2905,30 +3070,30 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2940,30 +3105,30 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K44" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2975,30 +3140,30 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J45" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3010,30 +3175,30 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3045,30 +3210,30 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3080,30 +3245,30 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J48" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3115,30 +3280,30 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J49" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3150,30 +3315,30 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J50" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3185,30 +3350,30 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3220,30 +3385,30 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J52" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K52" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3255,30 +3420,30 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J53" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3290,30 +3455,30 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J54" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3325,30 +3490,30 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J55" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K55" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3360,30 +3525,30 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K56" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3395,30 +3560,30 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J57" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3430,30 +3595,30 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J58" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K58" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3465,30 +3630,30 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J59" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K59" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3500,30 +3665,30 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J60" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K60" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3535,30 +3700,30 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K61" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3570,30 +3735,30 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I62" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J62" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K62" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3605,30 +3770,30 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I63" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J63" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K63" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3640,30 +3805,30 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J64" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K64" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3675,30 +3840,30 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J65" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3710,30 +3875,30 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I66" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J66" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3745,30 +3910,30 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J67" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3780,30 +3945,30 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I68" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J68" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K68" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3815,30 +3980,30 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J69" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K69" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3850,30 +4015,30 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I70" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J70" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K70" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3885,30 +4050,30 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I71" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J71" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3920,30 +4085,30 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I72" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J72" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3955,30 +4120,30 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I73" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J73" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3990,30 +4155,30 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I74" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J74" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K74" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4025,30 +4190,30 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I75" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J75" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K75" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4060,30 +4225,30 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I76" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J76" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4095,30 +4260,30 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I77" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J77" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K77" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4130,30 +4295,30 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I78" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J78" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4165,30 +4330,30 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I79" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J79" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K79" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4200,30 +4365,30 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I80" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K80" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4235,30 +4400,30 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I81" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J81" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K81" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4270,30 +4435,30 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I82" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J82" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4305,30 +4470,30 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I83" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J83" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K83" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4340,30 +4505,30 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J84" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4375,30 +4540,30 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I85" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J85" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4410,30 +4575,30 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I86" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J86" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K86" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4445,30 +4610,30 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I87" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J87" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K87" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4480,30 +4645,30 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J88" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="K88" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4515,30 +4680,30 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J89" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K89" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4550,30 +4715,30 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J90" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4585,30 +4750,30 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J91" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K91" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4620,30 +4785,30 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J92" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K92" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4655,30 +4820,30 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I93" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J93" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K93" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4690,30 +4855,30 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I94" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J94" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K94" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4725,30 +4890,30 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I95" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J95" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K95" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4760,30 +4925,30 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J96" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K96" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4795,30 +4960,30 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J97" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="K97" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4830,30 +4995,30 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I98" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J98" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K98" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4865,30 +5030,30 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J99" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K99" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4900,30 +5065,30 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I100" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J100" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4935,30 +5100,30 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I101" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J101" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K101" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4970,30 +5135,30 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I102" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J102" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K102" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5005,30 +5170,30 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I103" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J103" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K103" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5040,30 +5205,30 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I104" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J104" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K104" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5075,51 +5240,786 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I105" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J105" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K105" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>144</v>
+      </c>
+      <c r="I106" t="s">
+        <v>145</v>
+      </c>
+      <c r="J106" t="s">
+        <v>250</v>
+      </c>
+      <c r="K106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
         <v>122</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>144</v>
+      </c>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+      <c r="J107" t="s">
+        <v>251</v>
+      </c>
+      <c r="K107" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
         <v>123</v>
       </c>
-      <c r="I106" t="s">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>144</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+      <c r="J108" t="s">
+        <v>252</v>
+      </c>
+      <c r="K108" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
         <v>124</v>
       </c>
-      <c r="J106" t="s">
-        <v>229</v>
-      </c>
-      <c r="K106" t="s">
-        <v>334</v>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>144</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+      <c r="J109" t="s">
+        <v>253</v>
+      </c>
+      <c r="K109" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>144</v>
+      </c>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+      <c r="J110" t="s">
+        <v>254</v>
+      </c>
+      <c r="K110" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>144</v>
+      </c>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+      <c r="J111" t="s">
+        <v>255</v>
+      </c>
+      <c r="K111" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>144</v>
+      </c>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+      <c r="J112" t="s">
+        <v>256</v>
+      </c>
+      <c r="K112" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>144</v>
+      </c>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
+      <c r="J113" t="s">
+        <v>257</v>
+      </c>
+      <c r="K113" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>144</v>
+      </c>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+      <c r="J114" t="s">
+        <v>258</v>
+      </c>
+      <c r="K114" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>144</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+      <c r="J115" t="s">
+        <v>259</v>
+      </c>
+      <c r="K115" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>144</v>
+      </c>
+      <c r="I116" t="s">
+        <v>145</v>
+      </c>
+      <c r="J116" t="s">
+        <v>260</v>
+      </c>
+      <c r="K116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>144</v>
+      </c>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+      <c r="J117" t="s">
+        <v>261</v>
+      </c>
+      <c r="K117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>144</v>
+      </c>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+      <c r="J118" t="s">
+        <v>262</v>
+      </c>
+      <c r="K118" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>144</v>
+      </c>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+      <c r="J119" t="s">
+        <v>263</v>
+      </c>
+      <c r="K119" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>144</v>
+      </c>
+      <c r="I120" t="s">
+        <v>145</v>
+      </c>
+      <c r="J120" t="s">
+        <v>264</v>
+      </c>
+      <c r="K120" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>144</v>
+      </c>
+      <c r="I121" t="s">
+        <v>145</v>
+      </c>
+      <c r="J121" t="s">
+        <v>265</v>
+      </c>
+      <c r="K121" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>144</v>
+      </c>
+      <c r="I122" t="s">
+        <v>145</v>
+      </c>
+      <c r="J122" t="s">
+        <v>266</v>
+      </c>
+      <c r="K122" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>144</v>
+      </c>
+      <c r="I123" t="s">
+        <v>145</v>
+      </c>
+      <c r="J123" t="s">
+        <v>267</v>
+      </c>
+      <c r="K123" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>144</v>
+      </c>
+      <c r="I124" t="s">
+        <v>145</v>
+      </c>
+      <c r="J124" t="s">
+        <v>268</v>
+      </c>
+      <c r="K124" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>144</v>
+      </c>
+      <c r="I125" t="s">
+        <v>145</v>
+      </c>
+      <c r="J125" t="s">
+        <v>269</v>
+      </c>
+      <c r="K125" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>144</v>
+      </c>
+      <c r="I126" t="s">
+        <v>145</v>
+      </c>
+      <c r="J126" t="s">
+        <v>270</v>
+      </c>
+      <c r="K126" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>144</v>
+      </c>
+      <c r="I127" t="s">
+        <v>145</v>
+      </c>
+      <c r="J127" t="s">
+        <v>271</v>
+      </c>
+      <c r="K127" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/solvency2-rules/S2_08_01_01.xlsx
+++ b/solvency2-rules/S2_08_01_01.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Windows\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="335">
   <si>
     <t>pattern_id</t>
   </si>
@@ -55,6 +60,9 @@
     <t>Error message</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>Contract size 1</t>
   </si>
   <si>
@@ -76,6 +84,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTF1" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTE2" THEN {"S.08.01.01.01,c0180"} = 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLE2" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
@@ -88,9 +99,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLD9" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTD8" THEN {"S.08.01.01.01,c0180"} = 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTF4" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
@@ -100,6 +108,12 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLE9" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLF1" THEN {"S.08.01.01.01,c0180"} = 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLE2" THEN {"S.08.01.01.01,c0180"} = 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLD1" THEN {"S.08.01.01.01,c0180"} = 0 </t>
   </si>
   <si>
@@ -133,12 +147,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "SGA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -148,12 +156,15 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "GBA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLC6" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLB6" THEN {"S.08.01.01.01,c0180"} != 0 </t>
+  </si>
+  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "SEA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CHA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -163,9 +174,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -187,27 +195,18 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC6" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "HKA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CAA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XXA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "BEB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
@@ -217,45 +216,21 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "USC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC3" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTB3" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "ESA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEB1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "LUC1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUA1" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "ITA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "FRA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CAA2" THEN {"S.08.01.01.01,c0180"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTE2" THEN {"S.08.01.01.01,c0140"} = 0 </t>
   </si>
   <si>
@@ -322,9 +297,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLD9" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "SEA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CHA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -334,15 +306,9 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "AUA2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLD2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTD8" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -370,9 +336,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC6" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "HKA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLF1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -385,9 +348,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLA9" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLD2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "NLC1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -403,9 +363,6 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "USC1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "GBE2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTC3" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
@@ -418,37 +375,22 @@
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "JPB1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DEB1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "LUC1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "EUA1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "FRA2" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "DED1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "GBD1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "CHD1" THEN {"S.08.01.01.01,c0140"} != 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XTD4" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
     <t xml:space="preserve">IF {"S.08.01.01.02,c0380"} = "XLF4" THEN {"S.08.01.01.01,c0140"} != 0 </t>
   </si>
   <si>
-    <t>non-blocking taxonomy rule</t>
-  </si>
-  <si>
-    <t>blocking taxonomy rule</t>
+    <t>validation rule</t>
   </si>
   <si>
     <t>{}</t>
@@ -463,6 +405,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF1") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE2") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -475,9 +420,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF4") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -487,6 +429,12 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE9") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="NLE2") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLD1") &amp; (df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -520,12 +468,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="SGA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -535,12 +477,15 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="GBA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XLC6") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XLB6") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -550,9 +495,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -574,27 +516,18 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CAA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XXA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="BEB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -604,45 +537,21 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTB3") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="ESA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="JPA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="ITA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="CAA2") &amp; (df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; (df["S.08.01.01.01,c0140"]==0)]</t>
   </si>
   <si>
@@ -709,9 +618,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -721,15 +627,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -757,9 +657,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -772,9 +669,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA9") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="NLD2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -790,9 +684,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="GBE2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -805,27 +696,15 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DED1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="GBD1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="CHD1") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTD4") &amp; (df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -841,6 +720,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF1") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE2") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -853,9 +735,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTF4") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -865,6 +744,12 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLE9") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="NLE2") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLD1") &amp; ~(df["S.08.01.01.01,c0180"]==0)]</t>
   </si>
   <si>
@@ -898,12 +783,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="SGA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DEA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -913,12 +792,15 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="GBA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XLC6") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
+    <t>df[(df["S.08.01.01.02,c0380"]=="XLB6") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
+  </si>
+  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -928,9 +810,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -952,27 +831,18 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CAA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XXA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="BEB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
@@ -982,45 +852,21 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTB3") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="ESA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="JPA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="ITA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="CAA2") &amp; ~(df["S.08.01.01.01,c0180"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTE2") &amp; ~(df["S.08.01.01.01,c0140"]==0)]</t>
   </si>
   <si>
@@ -1087,9 +933,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD9") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="SEA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="CHA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -1099,15 +942,9 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="AUA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="AUA2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLD2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="XTD8") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -1135,9 +972,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC6") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="HKA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XLF1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -1150,9 +984,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="NLA9") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="NLD2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="NLC1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -1168,9 +999,6 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="USC1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="GBE2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTC3") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
@@ -1183,25 +1011,13 @@
     <t>df[(df["S.08.01.01.02,c0380"]=="JPB1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="DEB1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="LUC1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="EUA1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="FRA2") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="DED1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="GBD1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
-  </si>
-  <si>
-    <t>df[(df["S.08.01.01.02,c0380"]=="CHD1") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
   </si>
   <si>
     <t>df[(df["S.08.01.01.02,c0380"]=="XTD4") &amp; ~(df["S.08.01.01.01,c0140"]!=0)]</t>
@@ -1213,8 +1029,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,6 +1093,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1323,7 +1147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1355,9 +1179,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,6 +1214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1564,14 +1390,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="82" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,18 +1447,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1635,30 +1470,30 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1670,30 +1505,30 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1705,30 +1540,30 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1740,30 +1575,30 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1775,30 +1610,30 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1810,30 +1645,30 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1845,30 +1680,30 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1880,30 +1715,30 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1915,30 +1750,30 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1950,30 +1785,30 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1985,30 +1820,30 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2020,30 +1855,30 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2055,30 +1890,30 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2090,30 +1925,30 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2125,30 +1960,30 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2160,30 +1995,30 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2195,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2218,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2230,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2253,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2265,30 +2100,30 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" t="s">
         <v>143</v>
       </c>
-      <c r="I20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" t="s">
-        <v>164</v>
-      </c>
       <c r="K20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2300,30 +2135,30 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2335,30 +2170,30 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
         <v>145</v>
       </c>
-      <c r="J22" t="s">
-        <v>166</v>
-      </c>
       <c r="K22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2370,30 +2205,30 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2405,30 +2240,30 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2440,30 +2275,30 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2475,30 +2310,30 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2510,30 +2345,30 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2545,30 +2380,30 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2580,30 +2415,30 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2615,30 +2450,30 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2650,30 +2485,30 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2685,30 +2520,30 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2720,30 +2555,30 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2755,30 +2590,30 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2790,30 +2625,30 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2825,30 +2660,30 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2860,30 +2695,30 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I37" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2895,30 +2730,30 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2930,30 +2765,30 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I39" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2965,30 +2800,30 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3000,30 +2835,30 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I41" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3035,30 +2870,30 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I42" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J42" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3070,30 +2905,30 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3105,30 +2940,30 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I44" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K44" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3140,30 +2975,30 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I45" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J45" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3175,30 +3010,30 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J46" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3210,30 +3045,30 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I47" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3245,30 +3080,30 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I48" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J48" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3280,30 +3115,30 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J49" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3315,30 +3150,30 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I50" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J50" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3350,30 +3185,30 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J51" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3385,30 +3220,30 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I52" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J52" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K52" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3420,30 +3255,30 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J53" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="K53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3455,30 +3290,30 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J54" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3490,30 +3325,30 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J55" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3525,30 +3360,30 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I56" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J56" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K56" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3560,30 +3395,30 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I57" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J57" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3595,30 +3430,30 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I58" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J58" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3630,30 +3465,30 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J59" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="K59" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3665,30 +3500,30 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I60" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J60" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3700,30 +3535,30 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I61" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J61" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3735,30 +3570,30 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I62" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J62" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="K62" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3770,30 +3605,30 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I63" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J63" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K63" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3805,30 +3640,30 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I64" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J64" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3840,30 +3675,30 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I65" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J65" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K65" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3875,30 +3710,30 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I66" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J66" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3910,30 +3745,30 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I67" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J67" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K67" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3945,30 +3780,30 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I68" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J68" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="K68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3980,30 +3815,30 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I69" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J69" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="K69" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4015,30 +3850,30 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I70" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J70" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="K70" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4050,30 +3885,30 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I71" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J71" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="K71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4085,30 +3920,30 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I72" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J72" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="K72" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4120,30 +3955,30 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I73" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J73" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K73" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4155,30 +3990,30 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I74" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J74" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K74" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4190,30 +4025,30 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I75" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J75" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K75" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4225,30 +4060,30 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I76" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J76" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K76" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4260,30 +4095,30 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I77" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J77" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K77" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4295,30 +4130,30 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I78" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J78" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="K78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4330,30 +4165,30 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I79" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J79" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="K79" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4365,30 +4200,30 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I80" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J80" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="K80" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4400,30 +4235,30 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I81" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J81" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="K81" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4435,30 +4270,30 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I82" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J82" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="K82" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4470,30 +4305,30 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I83" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J83" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K83" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4505,30 +4340,30 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I84" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J84" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="K84" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4540,30 +4375,30 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I85" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J85" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="K85" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4575,30 +4410,30 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J86" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="K86" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4610,30 +4445,30 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I87" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J87" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K87" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4645,30 +4480,30 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I88" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J88" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="K88" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4680,30 +4515,30 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I89" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J89" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="K89" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4715,30 +4550,30 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I90" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J90" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="K90" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4750,30 +4585,30 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I91" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J91" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K91" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4785,30 +4620,30 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I92" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J92" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="K92" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4820,30 +4655,30 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I93" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J93" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="K93" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4855,30 +4690,30 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I94" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J94" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="K94" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4890,30 +4725,30 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I95" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J95" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="K95" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4925,30 +4760,30 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I96" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J96" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K96" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4960,30 +4795,30 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I97" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J97" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="K97" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4995,30 +4830,30 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I98" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J98" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="K98" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5030,30 +4865,30 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I99" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J99" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="K99" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5065,30 +4900,30 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I100" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J100" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="K100" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5100,30 +4935,30 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I101" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J101" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="K101" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5135,30 +4970,30 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J102" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="K102" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5170,30 +5005,30 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J103" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="K103" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5205,30 +5040,30 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I104" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J104" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="K104" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5240,30 +5075,30 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I105" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J105" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K105" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5275,751 +5110,16 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J106" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="K106" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>144</v>
-      </c>
-      <c r="I107" t="s">
-        <v>145</v>
-      </c>
-      <c r="J107" t="s">
-        <v>251</v>
-      </c>
-      <c r="K107" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>123</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>144</v>
-      </c>
-      <c r="I108" t="s">
-        <v>145</v>
-      </c>
-      <c r="J108" t="s">
-        <v>252</v>
-      </c>
-      <c r="K108" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109" t="s">
-        <v>144</v>
-      </c>
-      <c r="I109" t="s">
-        <v>145</v>
-      </c>
-      <c r="J109" t="s">
-        <v>253</v>
-      </c>
-      <c r="K109" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>125</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>144</v>
-      </c>
-      <c r="I110" t="s">
-        <v>145</v>
-      </c>
-      <c r="J110" t="s">
-        <v>254</v>
-      </c>
-      <c r="K110" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>144</v>
-      </c>
-      <c r="I111" t="s">
-        <v>145</v>
-      </c>
-      <c r="J111" t="s">
-        <v>255</v>
-      </c>
-      <c r="K111" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>127</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
-        <v>144</v>
-      </c>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-      <c r="J112" t="s">
-        <v>256</v>
-      </c>
-      <c r="K112" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
-        <v>144</v>
-      </c>
-      <c r="I113" t="s">
-        <v>145</v>
-      </c>
-      <c r="J113" t="s">
-        <v>257</v>
-      </c>
-      <c r="K113" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" t="s">
-        <v>129</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>144</v>
-      </c>
-      <c r="I114" t="s">
-        <v>145</v>
-      </c>
-      <c r="J114" t="s">
-        <v>258</v>
-      </c>
-      <c r="K114" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115" t="s">
-        <v>130</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
-        <v>144</v>
-      </c>
-      <c r="I115" t="s">
-        <v>145</v>
-      </c>
-      <c r="J115" t="s">
-        <v>259</v>
-      </c>
-      <c r="K115" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>144</v>
-      </c>
-      <c r="I116" t="s">
-        <v>145</v>
-      </c>
-      <c r="J116" t="s">
-        <v>260</v>
-      </c>
-      <c r="K116" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>144</v>
-      </c>
-      <c r="I117" t="s">
-        <v>145</v>
-      </c>
-      <c r="J117" t="s">
-        <v>261</v>
-      </c>
-      <c r="K117" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>144</v>
-      </c>
-      <c r="I118" t="s">
-        <v>145</v>
-      </c>
-      <c r="J118" t="s">
-        <v>262</v>
-      </c>
-      <c r="K118" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119" t="s">
-        <v>144</v>
-      </c>
-      <c r="I119" t="s">
-        <v>145</v>
-      </c>
-      <c r="J119" t="s">
-        <v>263</v>
-      </c>
-      <c r="K119" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>144</v>
-      </c>
-      <c r="I120" t="s">
-        <v>145</v>
-      </c>
-      <c r="J120" t="s">
-        <v>264</v>
-      </c>
-      <c r="K120" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
-        <v>144</v>
-      </c>
-      <c r="I121" t="s">
-        <v>145</v>
-      </c>
-      <c r="J121" t="s">
-        <v>265</v>
-      </c>
-      <c r="K121" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>137</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>144</v>
-      </c>
-      <c r="I122" t="s">
-        <v>145</v>
-      </c>
-      <c r="J122" t="s">
-        <v>266</v>
-      </c>
-      <c r="K122" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>138</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>144</v>
-      </c>
-      <c r="I123" t="s">
-        <v>145</v>
-      </c>
-      <c r="J123" t="s">
-        <v>267</v>
-      </c>
-      <c r="K123" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>139</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>144</v>
-      </c>
-      <c r="I124" t="s">
-        <v>145</v>
-      </c>
-      <c r="J124" t="s">
-        <v>268</v>
-      </c>
-      <c r="K124" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>144</v>
-      </c>
-      <c r="I125" t="s">
-        <v>145</v>
-      </c>
-      <c r="J125" t="s">
-        <v>269</v>
-      </c>
-      <c r="K125" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>141</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>144</v>
-      </c>
-      <c r="I126" t="s">
-        <v>145</v>
-      </c>
-      <c r="J126" t="s">
-        <v>270</v>
-      </c>
-      <c r="K126" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>142</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
-        <v>144</v>
-      </c>
-      <c r="I127" t="s">
-        <v>145</v>
-      </c>
-      <c r="J127" t="s">
-        <v>271</v>
-      </c>
-      <c r="K127" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
